--- a/biology/Zoologie/Cylindera_germanica/Cylindera_germanica.xlsx
+++ b/biology/Zoologie/Cylindera_germanica/Cylindera_germanica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cylindera germanica, la cicindèle germanique, est une espèce d'insectes coléoptères de la famille des Carabidae et de la sous-famille des Cicindelinae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Corps long d'environ 10 mm, plus arrondi que chez les espèces du genre Cicindela, le thorax est bronzé, les élytres vert foncé, parfois noirs et ornés de trois petites taches claires sur les bords latéraux.
 </t>
@@ -542,7 +556,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurasiatique : en Europe : de l'Espagne à la Scandinavie, à la Russie, à la Grèce et à la Turquie. Absent de Corse et d'autres îles méditerranéennes.
 </t>
@@ -573,7 +589,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce vole peu, court sur le sol à la recherche de proies et apprécie les régions sableuses humides où poussent des plantes herbacées. Les imagos vivent de mai à septembre et semblent en régression sensible en France (peut-être victimes des trop nombreux pesticides employés dans les cultures). 
 Sur les autres projets Wikimedia :
